--- a/biology/Botanique/Gymnocladus/Gymnocladus.xlsx
+++ b/biology/Botanique/Gymnocladus/Gymnocladus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gymnocladus  est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Amérique du Nord et d'Asie de l'Est, qui comprend cinq espèces acceptées[2]. Quatre espèces proviennent d'Asie alors qu'une seule, Gymnocladus dioica, est indigène en Amérique du Nord[3].  
-Ce sont des arbres qui se rencontrent dans les forêts de plaine ou de montagne, tempérées ou tropicales, parfois sur les rives des cours d'eau[4].
+Gymnocladus  est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Amérique du Nord et d'Asie de l'Est, qui comprend cinq espèces acceptées. Quatre espèces proviennent d'Asie alors qu'une seule, Gymnocladus dioica, est indigène en Amérique du Nord.  
+Ce sont des arbres qui se rencontrent dans les forêts de plaine ou de montagne, tempérées ou tropicales, parfois sur les rives des cours d'eau.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Gymnocladus »  dérive de deux racines grecques :  γυμνός (gymnos), « nu », et kládos (clados), « rameau »[5], en référence à l'« air nu et mort de l'espèce la plus connue de ce genre lorsqu'en hiver elle est dépouillée de ses feuilles »[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Gymnocladus »  dérive de deux racines grecques :  γυμνός (gymnos), « nu », et kládos (clados), « rameau », en référence à l'« air nu et mort de l'espèce la plus connue de ce genre lorsqu'en hiver elle est dépouillée de ses feuilles ». 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (21 décembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (21 décembre 2018) :
 Gymnocladus angustifolius (Gagnep.) J.E.Vidal
 Gymnocladus assamicus P.C.Kanjilal
 Gymnocladus burmanicus C.E.Parkinson (Gymnocladus de Birmanie)
